--- a/public/formatos_carga/asociados.xlsx
+++ b/public/formatos_carga/asociados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\aminiasdimor\formatos carga excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevFiles\versions-xampp\7.4.7\xampp\htdocs\aminiasdimor\public\formatos_carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -317,9 +317,6 @@
     <t>nrodoc_encargado_bautizo</t>
   </si>
   <si>
-    <t>miembro importar</t>
-  </si>
-  <si>
     <t>nn</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>idprovinciadomicilio</t>
+  </si>
+  <si>
+    <t>miembro importar 2</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,10 +771,10 @@
         <v>22</v>
       </c>
       <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
         <v>39</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
       </c>
       <c r="Y1" t="s">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -851,7 +851,7 @@
         <v>1424</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -878,13 +878,13 @@
         <v>63985477</v>
       </c>
       <c r="AD2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
